--- a/data/final_icppt.xlsx
+++ b/data/final_icppt.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projets\ARTEMIS\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27201BAF-FFE0-43F1-8407-7BEF700F29F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DEE2490-E88A-452A-ACEE-599F527E073F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="entso_eurostat_comparison" sheetId="21" r:id="rId1"/>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4583" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4585" uniqueCount="127">
   <si>
     <t>United Kingdom</t>
   </si>
@@ -444,6 +444,12 @@
   <si>
     <t>Select type of energy :</t>
   </si>
+  <si>
+    <t>Difference</t>
+  </si>
+  <si>
+    <t>Difference in %</t>
+  </si>
 </sst>
 </file>
 
@@ -453,7 +459,7 @@
     <numFmt numFmtId="164" formatCode="#,##0.000"/>
     <numFmt numFmtId="165" formatCode="yyyy"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -503,6 +509,13 @@
       <color indexed="9"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="10">
@@ -596,11 +609,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -667,10 +681,12 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{032052D6-85F3-46E3-9FF1-6F231B5FCF4F}"/>
+    <cellStyle name="Pourcentage" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1828,16 +1844,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>632459</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>236219</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>708212</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>170329</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -12583,20 +12599,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D5CA0CF-3E57-4785-A198-BD0E41C4AB48}">
-  <dimension ref="A2:E15"/>
+  <dimension ref="A2:G15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P35" sqref="P35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.5546875" customWidth="1"/>
+    <col min="1" max="1" width="11.5546875" hidden="1" customWidth="1"/>
     <col min="2" max="2" width="14.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B2" s="16" t="s">
         <v>123</v>
       </c>
@@ -12604,7 +12622,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B3" s="23" t="s">
         <v>22</v>
       </c>
@@ -12612,25 +12630,25 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="str">
         <f>B3</f>
         <v>Germany</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="str">
         <f>C3</f>
         <v>Nuclear</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="str">
         <f>CONCATENATE(C3, " installed capacity in ", B3," (in MWh)")</f>
         <v>Nuclear installed capacity in Germany (in MWh)</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C8" s="27"/>
       <c r="D8" s="27" t="s">
         <v>114</v>
@@ -12638,8 +12656,14 @@
       <c r="E8" s="27" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F8" s="27" t="s">
+        <v>125</v>
+      </c>
+      <c r="G8" s="27" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C9" s="27">
         <v>2014</v>
       </c>
@@ -12651,8 +12675,16 @@
         <f t="array" ref="E9">INDEX(source!$C$3:$J$412,MATCH(entso_eurostat_comparison!C9&amp;entso_eurostat_comparison!$A$5,source!$A$3:$A$412&amp;source!$B$3:$B$412,0),MATCH(entso_eurostat_comparison!$A$6,source!$C$2:$J$2,0))</f>
         <v>12074</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F9" s="28" t="e">
+        <f>D9-E9</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G9" s="30" t="e">
+        <f>(D9-E9)/E9</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C10" s="27">
         <v>2015</v>
       </c>
@@ -12664,8 +12696,16 @@
         <f t="array" ref="E10">INDEX(source!$C$3:$J$412,MATCH(entso_eurostat_comparison!C10&amp;entso_eurostat_comparison!$A$5,source!$A$3:$A$412&amp;source!$B$3:$B$412,0),MATCH(entso_eurostat_comparison!$A$6,source!$C$2:$J$2,0))</f>
         <v>10799</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F10" s="28">
+        <f t="shared" ref="F10:F15" si="0">D10-E10</f>
+        <v>1269</v>
+      </c>
+      <c r="G10" s="30">
+        <f t="shared" ref="G10:G15" si="1">(D10-E10)/E10</f>
+        <v>0.11751088063709603</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C11" s="27">
         <v>2016</v>
       </c>
@@ -12677,8 +12717,16 @@
         <f t="array" ref="E11">INDEX(source!$C$3:$J$412,MATCH(entso_eurostat_comparison!C11&amp;entso_eurostat_comparison!$A$5,source!$A$3:$A$412&amp;source!$B$3:$B$412,0),MATCH(entso_eurostat_comparison!$A$6,source!$C$2:$J$2,0))</f>
         <v>10799</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F11" s="28">
+        <f t="shared" si="0"/>
+        <v>-6</v>
+      </c>
+      <c r="G11" s="30">
+        <f t="shared" si="1"/>
+        <v>-5.5560700064820822E-4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C12" s="27">
         <v>2017</v>
       </c>
@@ -12690,8 +12738,16 @@
         <f t="array" ref="E12">INDEX(source!$C$3:$J$412,MATCH(entso_eurostat_comparison!C12&amp;entso_eurostat_comparison!$A$5,source!$A$3:$A$412&amp;source!$B$3:$B$412,0),MATCH(entso_eurostat_comparison!$A$6,source!$C$2:$J$2,0))</f>
         <v>10799</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F12" s="28">
+        <f t="shared" si="0"/>
+        <v>-6</v>
+      </c>
+      <c r="G12" s="30">
+        <f t="shared" si="1"/>
+        <v>-5.5560700064820822E-4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C13" s="27">
         <v>2018</v>
       </c>
@@ -12703,8 +12759,16 @@
         <f t="array" ref="E13">INDEX(source!$C$3:$J$412,MATCH(entso_eurostat_comparison!C13&amp;entso_eurostat_comparison!$A$5,source!$A$3:$A$412&amp;source!$B$3:$B$412,0),MATCH(entso_eurostat_comparison!$A$6,source!$C$2:$J$2,0))</f>
         <v>10799</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F13" s="28">
+        <f t="shared" si="0"/>
+        <v>-1283</v>
+      </c>
+      <c r="G13" s="30">
+        <f t="shared" si="1"/>
+        <v>-0.11880729697194185</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C14" s="27">
         <v>2019</v>
       </c>
@@ -12716,8 +12780,16 @@
         <f t="array" ref="E14">INDEX(source!$C$3:$J$412,MATCH(entso_eurostat_comparison!C14&amp;entso_eurostat_comparison!$A$5,source!$A$3:$A$412&amp;source!$B$3:$B$412,0),MATCH(entso_eurostat_comparison!$A$6,source!$C$2:$J$2,0))</f>
         <v>9525</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F14" s="28">
+        <f t="shared" si="0"/>
+        <v>-9</v>
+      </c>
+      <c r="G14" s="30">
+        <f t="shared" si="1"/>
+        <v>-9.4488188976377954E-4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C15" s="27">
         <v>2020</v>
       </c>
@@ -12729,10 +12801,19 @@
         <f t="array" ref="E15">INDEX(source!$C$3:$J$412,MATCH(entso_eurostat_comparison!C15&amp;entso_eurostat_comparison!$A$5,source!$A$3:$A$412&amp;source!$B$3:$B$412,0),MATCH(entso_eurostat_comparison!$A$6,source!$C$2:$J$2,0))</f>
         <v>8113</v>
       </c>
+      <c r="F15" s="28">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G15" s="30">
+        <f t="shared" si="1"/>
+        <v>1.2325896708985579E-4</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
